--- a/Exercices.xlsx
+++ b/Exercices.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -27,9 +27,9 @@
   </si>
   <si>
     <t>Développé couché
-Le “bench press” ou développé couché est l’un des premiers exercices que la plupart des pratiquants apprennent lorsqu’ils commencent la musculation. C’est de loin l’exercice le plus populaire effectué dans la plupart des salles de sport. Êtes-vous déjà allé un lundi dans une salle de muscu pour essayer de faire cet exercice sur banc ? Ce n’est tout simplement pas possible.
-Le problème, c’est que je vois rarement des personnes le faire correctement.
-Le développé couché est pratiqué comme un exercice pour le haut du corps, ciblant principalement les muscles pectoraux, et secondairement les triceps et épaules. Mais lorsqu’il est effectué correctement, il permet de travailler tout le corps, avec une sollicitation des jambes, un gainage de la sangle abdominale, et une stabilisation de la ceinture scapulaire.
+Le “bench press” ou développé couché est l’un des premiers exercices que la plupart des pratiquants apprennent lorsqu’ils commencent la musculation. C’est de loin l’exercice le plus populaire effectué dans la plupart des salles de sport. Êtes-vous déjà allé un lundi dans une salle de muscu pour essayer de faire cet exercice sur banc ? Ce n’est tout simplement pas possible.
+Le problème, c’est que je vois rarement des personnes le faire correctement.
+Le développé couché est pratiqué comme un exercice pour le haut du corps, ciblant principalement les muscles pectoraux, et secondairement les triceps et épaules. Mais lorsqu’il est effectué correctement, il permet de travailler tout le corps, avec une sollicitation des jambes, un gainage de la sangle abdominale, et une stabilisation de la ceinture scapulaire.
 Cependant, lorsqu’il est mal exécuté, il peut causer de graves déséquilibres musculaires qui entraînent des douleurs chroniques à l’épaule. Inutile donc de vous dire que cela va compliquer la plupart de vos activités quotidiennes.</t>
   </si>
   <si>
@@ -55,42 +55,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>aziziz
-ddddddff</t>
-  </si>
-  <si>
-    <t>Dos</t>
-  </si>
-  <si>
-    <t>dddddddddddd
-vvvvvvvv</t>
-  </si>
-  <si>
-    <t>eeeezzz
-weee</t>
-  </si>
-  <si>
-    <t>Epaules</t>
-  </si>
-  <si>
-    <t>pec pec
-exo pec</t>
-  </si>
-  <si>
-    <t>facile
-fffff</t>
-  </si>
-  <si>
-    <t>Triceps</t>
-  </si>
-  <si>
-    <t>zzzee
-dddddd</t>
-  </si>
-  <si>
-    <t>Ischio-jambiers</t>
   </si>
 </sst>
 </file>
@@ -135,7 +99,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -200,7 +164,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -229,90 +193,6 @@
       </c>
       <c r="D6" t="s" s="0">
         <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n" s="0">
-        <v>28.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
